--- a/Energy Consumption29.xlsx
+++ b/Energy Consumption29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.012179399533549</v>
+        <v>1.287483147441535</v>
       </c>
       <c r="C2" t="n">
-        <v>1.289338260093896</v>
+        <v>1.403005554198357</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.746673641115969</v>
+        <v>2.191553290604237</v>
       </c>
       <c r="C3" t="n">
-        <v>3.203113511988689</v>
+        <v>2.573896860326975</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.598673731230507</v>
+        <v>3.543790864104566</v>
       </c>
       <c r="C4" t="n">
-        <v>4.799472656964456</v>
+        <v>3.993392863159283</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.598228430417412</v>
+        <v>4.674828760453565</v>
       </c>
       <c r="C5" t="n">
-        <v>6.773998546190682</v>
+        <v>5.593223446315198</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.68475742592908</v>
+        <v>6.156779154688342</v>
       </c>
       <c r="C6" t="n">
-        <v>8.683547943196858</v>
+        <v>7.218194867730951</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.51883798885085</v>
+        <v>6.553875012213776</v>
       </c>
       <c r="C7" t="n">
-        <v>10.4392959801403</v>
+        <v>8.369258834213054</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.685372679821057</v>
+        <v>6.691653979187845</v>
       </c>
       <c r="C8" t="n">
-        <v>12.04175251287299</v>
+        <v>9.888812823761139</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.754493093417652</v>
+        <v>12.78044370847116</v>
       </c>
       <c r="C9" t="n">
-        <v>13.6270535079003</v>
+        <v>11.20048918982316</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.10821995244556</v>
+        <v>13.14934173963031</v>
       </c>
       <c r="C10" t="n">
-        <v>15.16599658227203</v>
+        <v>12.54584063506072</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.91591522022897</v>
+        <v>14.52428402938353</v>
       </c>
       <c r="C11" t="n">
-        <v>16.93469739667699</v>
+        <v>14.17422300672925</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.02303831971632</v>
+        <v>14.68089998200563</v>
       </c>
       <c r="C12" t="n">
-        <v>18.61780270352259</v>
+        <v>15.79405604972997</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18.05728669415676</v>
+        <v>23.18683475578371</v>
       </c>
       <c r="C13" t="n">
-        <v>20.35537741836309</v>
+        <v>17.54096994485423</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.20435769419113</v>
+        <v>24.57264523443997</v>
       </c>
       <c r="C14" t="n">
-        <v>22.02345180735879</v>
+        <v>18.74422592060859</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.66969036196818</v>
+        <v>26.02710242037035</v>
       </c>
       <c r="C15" t="n">
-        <v>23.31526505138532</v>
+        <v>20.46841043523107</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3391102915276</v>
+        <v>27.84525455872748</v>
       </c>
       <c r="C16" t="n">
-        <v>25.20081049909505</v>
+        <v>21.74844066490082</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.64683394144356</v>
+        <v>28.85769346028644</v>
       </c>
       <c r="C17" t="n">
-        <v>26.72735118334222</v>
+        <v>23.90869188078957</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32.82904347641279</v>
+        <v>29.86862092005304</v>
       </c>
       <c r="C18" t="n">
-        <v>28.44260075321929</v>
+        <v>25.02280357817771</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37.5503606558167</v>
+        <v>30.24721875574588</v>
       </c>
       <c r="C19" t="n">
-        <v>30.10229145448948</v>
+        <v>26.54228154854502</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>37.70874548649488</v>
+        <v>31.9796986071847</v>
       </c>
       <c r="C20" t="n">
-        <v>31.66197331113516</v>
+        <v>28.42884599299049</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>39.12233773153289</v>
+        <v>35.38388867374369</v>
       </c>
       <c r="C21" t="n">
-        <v>33.25284163613446</v>
+        <v>29.77841348580744</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39.53616907867877</v>
+        <v>36.39557491615464</v>
       </c>
       <c r="C22" t="n">
-        <v>34.76189137402073</v>
+        <v>31.03479184445516</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41.14017947952486</v>
+        <v>36.64729614751707</v>
       </c>
       <c r="C23" t="n">
-        <v>36.44669333803854</v>
+        <v>32.46723529721053</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.26374235849175</v>
+        <v>40.46893265650604</v>
       </c>
       <c r="C24" t="n">
-        <v>37.93329248140044</v>
+        <v>34.03649352120321</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>43.19903871272094</v>
+        <v>40.88419104277116</v>
       </c>
       <c r="C25" t="n">
-        <v>39.91203010919856</v>
+        <v>36.16930952749792</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>47.31323014168108</v>
+        <v>41.46108745763964</v>
       </c>
       <c r="C26" t="n">
-        <v>41.45148478219365</v>
+        <v>37.60719802707315</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>48.56587563081759</v>
+        <v>43.45171250100093</v>
       </c>
       <c r="C27" t="n">
-        <v>42.92568377899783</v>
+        <v>39.0379155722072</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>50.37758187920574</v>
+        <v>43.76161351304479</v>
       </c>
       <c r="C28" t="n">
-        <v>44.43229659102204</v>
+        <v>40.62186484454519</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55.6346275967788</v>
+        <v>45.0625265750013</v>
       </c>
       <c r="C29" t="n">
-        <v>45.93486841457903</v>
+        <v>42.31454643332894</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>58.83278659481385</v>
+        <v>50.06535754112878</v>
       </c>
       <c r="C30" t="n">
-        <v>47.44183196012451</v>
+        <v>43.51303696249746</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>59.01281732115715</v>
+        <v>51.11547314149358</v>
       </c>
       <c r="C31" t="n">
-        <v>48.90088195574727</v>
+        <v>45.58383514304137</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>60.08811332452019</v>
+        <v>53.43446407192612</v>
       </c>
       <c r="C32" t="n">
-        <v>50.52911856916269</v>
+        <v>46.79461015563245</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>63.29525466167658</v>
+        <v>55.16186291924704</v>
       </c>
       <c r="C33" t="n">
-        <v>52.37920658019731</v>
+        <v>48.61013337034979</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.91220170502039</v>
+        <v>55.99721147052355</v>
       </c>
       <c r="C34" t="n">
-        <v>54.6551069894244</v>
+        <v>50.28261904336615</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68.02418886775045</v>
+        <v>56.67181856806376</v>
       </c>
       <c r="C35" t="n">
-        <v>56.81887031529713</v>
+        <v>51.67553025662125</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75.36716524631679</v>
+        <v>60.69452796372011</v>
       </c>
       <c r="C36" t="n">
-        <v>58.38566399186135</v>
+        <v>53.26608168250775</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>78.88776342950156</v>
+        <v>65.35007596665054</v>
       </c>
       <c r="C37" t="n">
-        <v>59.89364539421977</v>
+        <v>54.47323662478596</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>81.96701640771258</v>
+        <v>66.08632965479499</v>
       </c>
       <c r="C38" t="n">
-        <v>61.64472814064735</v>
+        <v>56.1350349999621</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84.14605157492139</v>
+        <v>70.20159224790058</v>
       </c>
       <c r="C39" t="n">
-        <v>63.12199411675469</v>
+        <v>57.39973701877532</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84.41344473716478</v>
+        <v>72.78342661002772</v>
       </c>
       <c r="C40" t="n">
-        <v>65.06565987938262</v>
+        <v>58.84689887551348</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>85.66790787000288</v>
+        <v>74.66460975615436</v>
       </c>
       <c r="C41" t="n">
-        <v>66.62838637712555</v>
+        <v>60.45322237527225</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>88.87170941279909</v>
+        <v>75.16025185232623</v>
       </c>
       <c r="C42" t="n">
-        <v>68.54401427521741</v>
+        <v>61.98918190035944</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>89.12608804398859</v>
+        <v>77.84837243418728</v>
       </c>
       <c r="C43" t="n">
-        <v>70.0420515440467</v>
+        <v>63.84285501948462</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.66140474602096</v>
+        <v>81.3302313536736</v>
       </c>
       <c r="C44" t="n">
-        <v>71.49039861383331</v>
+        <v>65.32829588116344</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>90.84631985970624</v>
+        <v>81.44140367820123</v>
       </c>
       <c r="C45" t="n">
-        <v>73.40429244575022</v>
+        <v>66.68751545914397</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.51808448729037</v>
+        <v>83.50592692063815</v>
       </c>
       <c r="C46" t="n">
-        <v>75.29686046589238</v>
+        <v>68.47478627072276</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>97.50885879214319</v>
+        <v>85.70882314310553</v>
       </c>
       <c r="C47" t="n">
-        <v>76.62266389041909</v>
+        <v>70.14026496508136</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>99.15519647319073</v>
+        <v>87.56062292395593</v>
       </c>
       <c r="C48" t="n">
-        <v>78.40039610050651</v>
+        <v>72.13287407628231</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>93.14206198308786</v>
+      </c>
+      <c r="C49" t="n">
+        <v>73.50679205353029</v>
       </c>
     </row>
   </sheetData>
